--- a/テスト仕様書_卒業制作 .xlsx
+++ b/テスト仕様書_卒業制作 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29409"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B26FBE-AF26-4F6C-A6C1-806A12A7D74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83001226-2BCA-4730-9708-1FFFFD6C731C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="7575" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="273">
   <si>
     <t>単体テスト仕様書</t>
   </si>
@@ -843,6 +843,15 @@
   </si>
   <si>
     <t>Form2のbutton2を押下し、出てきたForm3を閉じ、再度button2を押下</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>×ボタン押下</t>
+  </si>
+  <si>
+    <t>アプリ終了</t>
   </si>
   <si>
     <t>項目</t>
@@ -1584,53 +1593,149 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1650,21 +1755,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1674,6 +1767,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1697,93 +1793,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2080,48 +2089,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="73" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="110"/>
       <c r="N1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="57"/>
+      <c r="O1" s="72"/>
       <c r="P1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="Q1" s="23"/>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="73" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="78"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="110"/>
       <c r="N2" s="20" t="s">
         <v>5</v>
       </c>
@@ -2157,338 +2166,378 @@
       <c r="B4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="79" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="81"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="111"/>
+      <c r="L4" s="111"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="81"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A5" s="57"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="19"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="102"/>
     </row>
     <row r="6" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="19"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="102"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="102"/>
     </row>
     <row r="7" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A7" s="57"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="19"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="102"/>
     </row>
     <row r="8" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A8" s="57"/>
+      <c r="A8" s="72"/>
       <c r="B8" s="19"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
     </row>
     <row r="9" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A9" s="57"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="19"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="102"/>
+      <c r="Q9" s="102"/>
     </row>
     <row r="10" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A10" s="57"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="19"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
     </row>
     <row r="11" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A11" s="57"/>
+      <c r="A11" s="72"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="102"/>
     </row>
     <row r="12" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="102"/>
     </row>
     <row r="13" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
     </row>
     <row r="14" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A14" s="57"/>
+      <c r="A14" s="72"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
     </row>
     <row r="15" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
     </row>
     <row r="16" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
     </row>
     <row r="17" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A17" s="57"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
     </row>
     <row r="18" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A18" s="57"/>
+      <c r="A18" s="72"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
     </row>
     <row r="19" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="72"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
     </row>
     <row r="20" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="72"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:M7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="P14:Q14"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="H19:M19"/>
@@ -2505,46 +2554,6 @@
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="H15:M15"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:M7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:M4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.31496062992126" bottom="0.27559055118110198" header="0.35433070866141703" footer="0.15748031496063"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -2556,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:N164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="I161" sqref="I161"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2616,7 +2625,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="112">
+      <c r="M4" s="89">
         <v>45940</v>
       </c>
       <c r="N4" s="9"/>
@@ -2636,7 +2645,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="112">
+      <c r="M5" s="89">
         <v>45940</v>
       </c>
       <c r="N5" s="10"/>
@@ -2656,7 +2665,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="112">
+      <c r="M6" s="89">
         <v>45940</v>
       </c>
       <c r="N6" s="10"/>
@@ -2678,7 +2687,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
-      <c r="M7" s="112">
+      <c r="M7" s="89">
         <v>45940</v>
       </c>
       <c r="N7" s="10"/>
@@ -2696,13 +2705,13 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="57" t="s">
         <v>28</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="51"/>
-      <c r="M8" s="112">
+      <c r="M8" s="89">
         <v>45940</v>
       </c>
       <c r="N8" s="10"/>
@@ -2711,7 +2720,7 @@
       <c r="A9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="45"/>
@@ -2720,13 +2729,13 @@
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="31"/>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="59" t="s">
         <v>31</v>
       </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
       <c r="L9" s="53"/>
-      <c r="M9" s="112">
+      <c r="M9" s="89">
         <v>45940</v>
       </c>
       <c r="N9" s="10"/>
@@ -2744,13 +2753,13 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
-      <c r="I10" s="61" t="s">
+      <c r="I10" s="60" t="s">
         <v>34</v>
       </c>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
-      <c r="M10" s="112">
+      <c r="M10" s="89">
         <v>45940</v>
       </c>
       <c r="N10" s="10"/>
@@ -2768,13 +2777,13 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="12"/>
-      <c r="I11" s="58" t="s">
+      <c r="I11" s="57" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="50"/>
       <c r="K11" s="50"/>
       <c r="L11" s="51"/>
-      <c r="M11" s="112">
+      <c r="M11" s="89">
         <v>45940</v>
       </c>
       <c r="N11" s="10"/>
@@ -2783,7 +2792,7 @@
       <c r="A12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="6"/>
@@ -2792,13 +2801,13 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="60" t="s">
+      <c r="I12" s="59" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="112">
+      <c r="M12" s="89">
         <v>45940</v>
       </c>
       <c r="N12" s="10"/>
@@ -2816,13 +2825,13 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="84" t="s">
+      <c r="I13" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="112">
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="89">
         <v>45940</v>
       </c>
       <c r="N13" s="10"/>
@@ -2831,7 +2840,7 @@
       <c r="A14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="7"/>
@@ -2839,14 +2848,14 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="67" t="s">
+      <c r="H14" s="63"/>
+      <c r="I14" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="112">
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="89">
         <v>45940</v>
       </c>
       <c r="N14" s="10"/>
@@ -2866,7 +2875,7 @@
       <c r="J15" s="42"/>
       <c r="K15" s="42"/>
       <c r="L15" s="43"/>
-      <c r="M15" s="112">
+      <c r="M15" s="89">
         <v>45940</v>
       </c>
       <c r="N15" s="10"/>
@@ -2884,13 +2893,13 @@
       <c r="F16" s="36"/>
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="61" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="48"/>
       <c r="K16" s="48"/>
       <c r="L16" s="49"/>
-      <c r="M16" s="112">
+      <c r="M16" s="89">
         <v>45940</v>
       </c>
       <c r="N16" s="10"/>
@@ -2914,7 +2923,7 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="112">
+      <c r="M17" s="89">
         <v>45940</v>
       </c>
       <c r="N17" s="10"/>
@@ -2938,7 +2947,7 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="112">
+      <c r="M18" s="89">
         <v>45940</v>
       </c>
       <c r="N18" s="10"/>
@@ -2962,7 +2971,7 @@
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="112">
+      <c r="M19" s="89">
         <v>45940</v>
       </c>
       <c r="N19" s="10"/>
@@ -2986,7 +2995,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="112">
+      <c r="M20" s="89">
         <v>45940</v>
       </c>
       <c r="N20" s="10"/>
@@ -3010,7 +3019,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="112">
+      <c r="M21" s="89">
         <v>45940</v>
       </c>
       <c r="N21" s="10"/>
@@ -3019,7 +3028,7 @@
       <c r="A22" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C22" s="30"/>
@@ -3028,13 +3037,13 @@
       <c r="F22" s="30"/>
       <c r="G22" s="30"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="108" t="s">
+      <c r="I22" s="86" t="s">
         <v>68</v>
       </c>
       <c r="J22" s="42"/>
       <c r="K22" s="42"/>
       <c r="L22" s="43"/>
-      <c r="M22" s="112">
+      <c r="M22" s="89">
         <v>45940</v>
       </c>
       <c r="N22" s="10"/>
@@ -3043,7 +3052,7 @@
       <c r="A23" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>70</v>
       </c>
       <c r="C23" s="6"/>
@@ -3052,20 +3061,20 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="12"/>
-      <c r="I23" s="109" t="s">
+      <c r="I23" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="88"/>
-      <c r="M23" s="112">
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="89">
         <v>45940</v>
       </c>
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="29"/>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="88" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="5"/>
@@ -3074,11 +3083,11 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="112">
+      <c r="I24" s="87"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="89">
         <v>45940</v>
       </c>
       <c r="N24" s="10"/>
@@ -3096,13 +3105,13 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="68" t="s">
+      <c r="I25" s="67" t="s">
         <v>75</v>
       </c>
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
       <c r="L25" s="39"/>
-      <c r="M25" s="112">
+      <c r="M25" s="89">
         <v>45940</v>
       </c>
       <c r="N25" s="10"/>
@@ -3116,13 +3125,13 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="12"/>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="112">
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="89">
         <v>45940</v>
       </c>
       <c r="N26" s="10"/>
@@ -3146,7 +3155,7 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="112">
+      <c r="M27" s="89">
         <v>45940</v>
       </c>
       <c r="N27" s="10"/>
@@ -3160,13 +3169,13 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="12"/>
-      <c r="I28" s="69" t="s">
+      <c r="I28" s="68" t="s">
         <v>79</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
-      <c r="M28" s="112">
+      <c r="M28" s="89">
         <v>45940</v>
       </c>
       <c r="N28" s="10"/>
@@ -3186,7 +3195,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="112">
+      <c r="M29" s="89">
         <v>45940</v>
       </c>
       <c r="N29" s="10"/>
@@ -3206,7 +3215,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="112">
+      <c r="M30" s="89">
         <v>45940</v>
       </c>
       <c r="N30" s="10"/>
@@ -3224,13 +3233,13 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="12"/>
-      <c r="I31" s="92" t="s">
+      <c r="I31" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="112">
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
+      <c r="M31" s="89">
         <v>45940</v>
       </c>
       <c r="N31" s="10"/>
@@ -3250,7 +3259,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
-      <c r="M32" s="112">
+      <c r="M32" s="89">
         <v>45940</v>
       </c>
       <c r="N32" s="10"/>
@@ -3270,7 +3279,7 @@
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
-      <c r="M33" s="112">
+      <c r="M33" s="89">
         <v>45940</v>
       </c>
       <c r="N33" s="10"/>
@@ -3294,7 +3303,7 @@
       <c r="J34" s="45"/>
       <c r="K34" s="45"/>
       <c r="L34" s="45"/>
-      <c r="M34" s="112">
+      <c r="M34" s="89">
         <v>45940</v>
       </c>
       <c r="N34" s="10"/>
@@ -3314,7 +3323,7 @@
       <c r="J35" s="45"/>
       <c r="K35" s="45"/>
       <c r="L35" s="45"/>
-      <c r="M35" s="112">
+      <c r="M35" s="89">
         <v>45940</v>
       </c>
       <c r="N35" s="10"/>
@@ -3334,7 +3343,7 @@
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
-      <c r="M36" s="112">
+      <c r="M36" s="89">
         <v>45940</v>
       </c>
       <c r="N36" s="10"/>
@@ -3348,13 +3357,13 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="12"/>
-      <c r="I37" s="100" t="s">
+      <c r="I37" s="78" t="s">
         <v>91</v>
       </c>
       <c r="J37" s="45"/>
       <c r="K37" s="45"/>
       <c r="L37" s="45"/>
-      <c r="M37" s="112">
+      <c r="M37" s="89">
         <v>45940</v>
       </c>
       <c r="N37" s="10"/>
@@ -3368,16 +3377,16 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="12"/>
-      <c r="I38" s="69" t="s">
+      <c r="I38" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="M38" s="112">
+      <c r="M38" s="89">
         <v>45940</v>
       </c>
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="98"/>
+      <c r="A39" s="76"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3385,19 +3394,19 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="12"/>
-      <c r="I39" s="92" t="s">
+      <c r="I39" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="112">
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="123"/>
+      <c r="M39" s="89">
         <v>45940</v>
       </c>
       <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="99"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
@@ -3405,19 +3414,19 @@
       <c r="F40" s="45"/>
       <c r="G40" s="45"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="101" t="s">
+      <c r="I40" s="79" t="s">
         <v>94</v>
       </c>
       <c r="J40" s="45"/>
       <c r="K40" s="45"/>
       <c r="L40" s="45"/>
-      <c r="M40" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N40" s="107"/>
+      <c r="M40" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N40" s="85"/>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="99"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="45"/>
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
@@ -3425,19 +3434,19 @@
       <c r="F41" s="45"/>
       <c r="G41" s="45"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="102" t="s">
+      <c r="I41" s="80" t="s">
         <v>95</v>
       </c>
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
-      <c r="M41" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N41" s="107"/>
+      <c r="M41" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N41" s="85"/>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="99"/>
+      <c r="A42" s="77"/>
       <c r="B42" s="45"/>
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
@@ -3445,19 +3454,19 @@
       <c r="F42" s="45"/>
       <c r="G42" s="45"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="102" t="s">
+      <c r="I42" s="80" t="s">
         <v>96</v>
       </c>
       <c r="J42" s="45"/>
       <c r="K42" s="45"/>
       <c r="L42" s="45"/>
-      <c r="M42" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N42" s="107"/>
+      <c r="M42" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N42" s="85"/>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="99"/>
+      <c r="A43" s="77"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
@@ -3465,19 +3474,19 @@
       <c r="F43" s="45"/>
       <c r="G43" s="45"/>
       <c r="H43" s="45"/>
-      <c r="I43" s="102" t="s">
+      <c r="I43" s="80" t="s">
         <v>97</v>
       </c>
       <c r="J43" s="45"/>
       <c r="K43" s="45"/>
       <c r="L43" s="45"/>
-      <c r="M43" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N43" s="107"/>
+      <c r="M43" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N43" s="85"/>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="99"/>
+      <c r="A44" s="77"/>
       <c r="B44" s="45" t="s">
         <v>98</v>
       </c>
@@ -3487,17 +3496,17 @@
       <c r="F44" s="45"/>
       <c r="G44" s="45"/>
       <c r="H44" s="45"/>
-      <c r="I44" s="102"/>
+      <c r="I44" s="80"/>
       <c r="J44" s="45"/>
       <c r="K44" s="45"/>
       <c r="L44" s="45"/>
-      <c r="M44" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N44" s="107"/>
+      <c r="M44" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N44" s="85"/>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="99" t="s">
+      <c r="A45" s="77" t="s">
         <v>99</v>
       </c>
       <c r="B45" s="45" t="s">
@@ -3509,19 +3518,19 @@
       <c r="F45" s="45"/>
       <c r="G45" s="45"/>
       <c r="H45" s="45"/>
-      <c r="I45" s="102" t="s">
+      <c r="I45" s="80" t="s">
         <v>101</v>
       </c>
       <c r="J45" s="45"/>
       <c r="K45" s="45"/>
       <c r="L45" s="45"/>
-      <c r="M45" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N45" s="107"/>
+      <c r="M45" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N45" s="85"/>
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="99" t="s">
+      <c r="A46" s="77" t="s">
         <v>102</v>
       </c>
       <c r="B46" s="45" t="s">
@@ -3533,19 +3542,19 @@
       <c r="F46" s="45"/>
       <c r="G46" s="45"/>
       <c r="H46" s="45"/>
-      <c r="I46" s="102" t="s">
+      <c r="I46" s="80" t="s">
         <v>104</v>
       </c>
       <c r="J46" s="45"/>
       <c r="K46" s="45"/>
       <c r="L46" s="45"/>
-      <c r="M46" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N46" s="107"/>
+      <c r="M46" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N46" s="85"/>
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="99"/>
+      <c r="A47" s="77"/>
       <c r="B47" s="45"/>
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
@@ -3553,19 +3562,19 @@
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
       <c r="H47" s="45"/>
-      <c r="I47" s="102" t="s">
+      <c r="I47" s="80" t="s">
         <v>105</v>
       </c>
       <c r="J47" s="45"/>
       <c r="K47" s="45"/>
       <c r="L47" s="45"/>
-      <c r="M47" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N47" s="107"/>
+      <c r="M47" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N47" s="85"/>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="77" t="s">
         <v>106</v>
       </c>
       <c r="B48" s="45" t="s">
@@ -3577,19 +3586,19 @@
       <c r="F48" s="45"/>
       <c r="G48" s="45"/>
       <c r="H48" s="45"/>
-      <c r="I48" s="102" t="s">
+      <c r="I48" s="80" t="s">
         <v>108</v>
       </c>
       <c r="J48" s="45"/>
       <c r="K48" s="45"/>
       <c r="L48" s="45"/>
-      <c r="M48" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N48" s="107"/>
+      <c r="M48" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N48" s="85"/>
     </row>
     <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="99"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="45"/>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
@@ -3597,19 +3606,19 @@
       <c r="F49" s="45"/>
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
-      <c r="I49" s="103" t="s">
+      <c r="I49" s="81" t="s">
         <v>109</v>
       </c>
       <c r="J49" s="45"/>
       <c r="K49" s="45"/>
       <c r="L49" s="45"/>
-      <c r="M49" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N49" s="107"/>
+      <c r="M49" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N49" s="85"/>
     </row>
     <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="99" t="s">
+      <c r="A50" s="77" t="s">
         <v>110</v>
       </c>
       <c r="B50" s="45" t="s">
@@ -3621,19 +3630,19 @@
       <c r="F50" s="45"/>
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
-      <c r="I50" s="102" t="s">
+      <c r="I50" s="80" t="s">
         <v>112</v>
       </c>
       <c r="J50" s="45"/>
       <c r="K50" s="45"/>
       <c r="L50" s="45"/>
-      <c r="M50" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N50" s="107"/>
+      <c r="M50" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N50" s="85"/>
     </row>
     <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="99"/>
+      <c r="A51" s="77"/>
       <c r="B51" s="45"/>
       <c r="C51" s="45"/>
       <c r="D51" s="45"/>
@@ -3641,19 +3650,19 @@
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
       <c r="H51" s="45"/>
-      <c r="I51" s="102" t="s">
+      <c r="I51" s="80" t="s">
         <v>113</v>
       </c>
       <c r="J51" s="45"/>
       <c r="K51" s="45"/>
       <c r="L51" s="45"/>
-      <c r="M51" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N51" s="107"/>
+      <c r="M51" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N51" s="85"/>
     </row>
     <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="99" t="s">
+      <c r="A52" s="77" t="s">
         <v>114</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -3665,19 +3674,19 @@
       <c r="F52" s="45"/>
       <c r="G52" s="45"/>
       <c r="H52" s="45"/>
-      <c r="I52" s="102" t="s">
+      <c r="I52" s="80" t="s">
         <v>116</v>
       </c>
       <c r="J52" s="45"/>
       <c r="K52" s="45"/>
       <c r="L52" s="45"/>
-      <c r="M52" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N52" s="107"/>
+      <c r="M52" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N52" s="85"/>
     </row>
     <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="99"/>
+      <c r="A53" s="77"/>
       <c r="B53" s="45"/>
       <c r="C53" s="45"/>
       <c r="D53" s="45"/>
@@ -3685,19 +3694,19 @@
       <c r="F53" s="45"/>
       <c r="G53" s="45"/>
       <c r="H53" s="45"/>
-      <c r="I53" s="102" t="s">
+      <c r="I53" s="80" t="s">
         <v>117</v>
       </c>
       <c r="J53" s="45"/>
       <c r="K53" s="45"/>
       <c r="L53" s="45"/>
-      <c r="M53" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N53" s="107"/>
+      <c r="M53" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N53" s="85"/>
     </row>
     <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="99" t="s">
+      <c r="A54" s="77" t="s">
         <v>118</v>
       </c>
       <c r="B54" s="45" t="s">
@@ -3709,19 +3718,19 @@
       <c r="F54" s="45"/>
       <c r="G54" s="45"/>
       <c r="H54" s="45"/>
-      <c r="I54" s="102" t="s">
+      <c r="I54" s="80" t="s">
         <v>120</v>
       </c>
       <c r="J54" s="45"/>
       <c r="K54" s="45"/>
       <c r="L54" s="45"/>
-      <c r="M54" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N54" s="107"/>
+      <c r="M54" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N54" s="85"/>
     </row>
     <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="99"/>
+      <c r="A55" s="77"/>
       <c r="B55" s="45"/>
       <c r="C55" s="45"/>
       <c r="D55" s="45"/>
@@ -3729,19 +3738,19 @@
       <c r="F55" s="45"/>
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
-      <c r="I55" s="104" t="s">
+      <c r="I55" s="82" t="s">
         <v>121</v>
       </c>
       <c r="J55" s="45"/>
       <c r="K55" s="45"/>
       <c r="L55" s="45"/>
-      <c r="M55" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N55" s="107"/>
+      <c r="M55" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N55" s="85"/>
     </row>
     <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="77" t="s">
         <v>122</v>
       </c>
       <c r="B56" s="45" t="s">
@@ -3753,19 +3762,19 @@
       <c r="F56" s="45"/>
       <c r="G56" s="45"/>
       <c r="H56" s="45"/>
-      <c r="I56" s="104" t="s">
+      <c r="I56" s="82" t="s">
         <v>124</v>
       </c>
       <c r="J56" s="45"/>
       <c r="K56" s="45"/>
       <c r="L56" s="45"/>
-      <c r="M56" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N56" s="107"/>
+      <c r="M56" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N56" s="85"/>
     </row>
     <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="99"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="45" t="s">
         <v>125</v>
       </c>
@@ -3775,17 +3784,17 @@
       <c r="F57" s="45"/>
       <c r="G57" s="45"/>
       <c r="H57" s="45"/>
-      <c r="I57" s="104"/>
+      <c r="I57" s="82"/>
       <c r="J57" s="45"/>
       <c r="K57" s="45"/>
       <c r="L57" s="45"/>
-      <c r="M57" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N57" s="107"/>
+      <c r="M57" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N57" s="85"/>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="77" t="s">
         <v>126</v>
       </c>
       <c r="B58" s="45" t="s">
@@ -3797,19 +3806,19 @@
       <c r="F58" s="45"/>
       <c r="G58" s="45"/>
       <c r="H58" s="45"/>
-      <c r="I58" s="102" t="s">
+      <c r="I58" s="80" t="s">
         <v>101</v>
       </c>
       <c r="J58" s="45"/>
       <c r="K58" s="45"/>
       <c r="L58" s="45"/>
-      <c r="M58" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N58" s="107"/>
+      <c r="M58" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N58" s="85"/>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="99" t="s">
+      <c r="A59" s="77" t="s">
         <v>127</v>
       </c>
       <c r="B59" s="45" t="s">
@@ -3821,19 +3830,19 @@
       <c r="F59" s="45"/>
       <c r="G59" s="45"/>
       <c r="H59" s="45"/>
-      <c r="I59" s="102" t="s">
+      <c r="I59" s="80" t="s">
         <v>104</v>
       </c>
       <c r="J59" s="45"/>
       <c r="K59" s="45"/>
       <c r="L59" s="45"/>
-      <c r="M59" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N59" s="107"/>
+      <c r="M59" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N59" s="85"/>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="99"/>
+      <c r="A60" s="77"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
       <c r="D60" s="45"/>
@@ -3841,19 +3850,19 @@
       <c r="F60" s="45"/>
       <c r="G60" s="45"/>
       <c r="H60" s="45"/>
-      <c r="I60" s="102" t="s">
+      <c r="I60" s="80" t="s">
         <v>105</v>
       </c>
       <c r="J60" s="45"/>
       <c r="K60" s="45"/>
       <c r="L60" s="45"/>
-      <c r="M60" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N60" s="107"/>
+      <c r="M60" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N60" s="85"/>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="99" t="s">
+      <c r="A61" s="77" t="s">
         <v>128</v>
       </c>
       <c r="B61" s="45" t="s">
@@ -3865,19 +3874,19 @@
       <c r="F61" s="45"/>
       <c r="G61" s="45"/>
       <c r="H61" s="45"/>
-      <c r="I61" s="102" t="s">
+      <c r="I61" s="80" t="s">
         <v>108</v>
       </c>
       <c r="J61" s="45"/>
       <c r="K61" s="45"/>
       <c r="L61" s="45"/>
-      <c r="M61" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N61" s="107"/>
+      <c r="M61" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N61" s="85"/>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="99"/>
+      <c r="A62" s="77"/>
       <c r="B62" s="45"/>
       <c r="C62" s="45"/>
       <c r="D62" s="45"/>
@@ -3885,19 +3894,19 @@
       <c r="F62" s="45"/>
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
-      <c r="I62" s="103" t="s">
+      <c r="I62" s="81" t="s">
         <v>109</v>
       </c>
       <c r="J62" s="45"/>
       <c r="K62" s="45"/>
       <c r="L62" s="45"/>
-      <c r="M62" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N62" s="107"/>
+      <c r="M62" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N62" s="85"/>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="99" t="s">
+      <c r="A63" s="77" t="s">
         <v>129</v>
       </c>
       <c r="B63" s="45" t="s">
@@ -3909,19 +3918,19 @@
       <c r="F63" s="45"/>
       <c r="G63" s="45"/>
       <c r="H63" s="45"/>
-      <c r="I63" s="102" t="s">
+      <c r="I63" s="80" t="s">
         <v>112</v>
       </c>
       <c r="J63" s="45"/>
       <c r="K63" s="45"/>
       <c r="L63" s="45"/>
-      <c r="M63" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N63" s="107"/>
+      <c r="M63" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N63" s="85"/>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="99"/>
+      <c r="A64" s="77"/>
       <c r="B64" s="45"/>
       <c r="C64" s="45"/>
       <c r="D64" s="45"/>
@@ -3929,19 +3938,19 @@
       <c r="F64" s="45"/>
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
-      <c r="I64" s="102" t="s">
+      <c r="I64" s="80" t="s">
         <v>113</v>
       </c>
       <c r="J64" s="45"/>
       <c r="K64" s="45"/>
       <c r="L64" s="45"/>
-      <c r="M64" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N64" s="107"/>
+      <c r="M64" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N64" s="85"/>
     </row>
     <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="99" t="s">
+      <c r="A65" s="77" t="s">
         <v>130</v>
       </c>
       <c r="B65" s="45" t="s">
@@ -3953,19 +3962,19 @@
       <c r="F65" s="45"/>
       <c r="G65" s="45"/>
       <c r="H65" s="45"/>
-      <c r="I65" s="102" t="s">
+      <c r="I65" s="80" t="s">
         <v>116</v>
       </c>
       <c r="J65" s="45"/>
       <c r="K65" s="45"/>
       <c r="L65" s="45"/>
-      <c r="M65" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N65" s="107"/>
+      <c r="M65" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N65" s="85"/>
     </row>
     <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="99"/>
+      <c r="A66" s="77"/>
       <c r="B66" s="45"/>
       <c r="C66" s="45"/>
       <c r="D66" s="45"/>
@@ -3973,19 +3982,19 @@
       <c r="F66" s="45"/>
       <c r="G66" s="45"/>
       <c r="H66" s="45"/>
-      <c r="I66" s="102" t="s">
+      <c r="I66" s="80" t="s">
         <v>117</v>
       </c>
       <c r="J66" s="45"/>
       <c r="K66" s="45"/>
       <c r="L66" s="45"/>
-      <c r="M66" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N66" s="107"/>
+      <c r="M66" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N66" s="85"/>
     </row>
     <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="95" t="s">
+      <c r="A67" s="73" t="s">
         <v>131</v>
       </c>
       <c r="B67" s="45" t="s">
@@ -3997,19 +4006,19 @@
       <c r="F67" s="45"/>
       <c r="G67" s="45"/>
       <c r="H67" s="45"/>
-      <c r="I67" s="102" t="s">
+      <c r="I67" s="80" t="s">
         <v>120</v>
       </c>
       <c r="J67" s="45"/>
       <c r="K67" s="45"/>
       <c r="L67" s="45"/>
-      <c r="M67" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N67" s="107"/>
+      <c r="M67" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N67" s="85"/>
     </row>
     <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="95"/>
+      <c r="A68" s="73"/>
       <c r="B68" s="45"/>
       <c r="C68" s="45"/>
       <c r="D68" s="45"/>
@@ -4017,19 +4026,19 @@
       <c r="F68" s="45"/>
       <c r="G68" s="45"/>
       <c r="H68" s="45"/>
-      <c r="I68" s="104" t="s">
+      <c r="I68" s="82" t="s">
         <v>121</v>
       </c>
       <c r="J68" s="45"/>
       <c r="K68" s="45"/>
       <c r="L68" s="45"/>
-      <c r="M68" s="112">
-        <v>45940</v>
-      </c>
-      <c r="N68" s="113"/>
+      <c r="M68" s="89">
+        <v>45940</v>
+      </c>
+      <c r="N68" s="90"/>
     </row>
     <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="95" t="s">
+      <c r="A69" s="73" t="s">
         <v>132</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -4041,19 +4050,19 @@
       <c r="F69" s="45"/>
       <c r="G69" s="45"/>
       <c r="H69" s="45"/>
-      <c r="I69" s="104" t="s">
+      <c r="I69" s="82" t="s">
         <v>124</v>
       </c>
       <c r="J69" s="45"/>
       <c r="K69" s="45"/>
       <c r="L69" s="45"/>
-      <c r="M69" s="115">
-        <v>45940</v>
-      </c>
-      <c r="N69" s="116"/>
+      <c r="M69" s="92">
+        <v>45940</v>
+      </c>
+      <c r="N69" s="93"/>
     </row>
     <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="99"/>
+      <c r="A70" s="77"/>
       <c r="B70" s="45" t="s">
         <v>133</v>
       </c>
@@ -4062,16 +4071,16 @@
       <c r="E70" s="45"/>
       <c r="F70" s="45"/>
       <c r="G70" s="45"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="68"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="67"/>
       <c r="J70" s="45"/>
       <c r="K70" s="45"/>
       <c r="L70" s="45"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="105"/>
+      <c r="M70" s="94"/>
+      <c r="N70" s="83"/>
     </row>
     <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="97"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="45" t="s">
         <v>134</v>
       </c>
@@ -4080,16 +4089,16 @@
       <c r="E71" s="45"/>
       <c r="F71" s="45"/>
       <c r="G71" s="45"/>
-      <c r="H71" s="107"/>
-      <c r="I71" s="68"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="67"/>
       <c r="J71" s="45"/>
       <c r="K71" s="45"/>
       <c r="L71" s="45"/>
-      <c r="M71" s="106"/>
-      <c r="N71" s="107"/>
+      <c r="M71" s="84"/>
+      <c r="N71" s="85"/>
     </row>
     <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="97" t="s">
+      <c r="A72" s="75" t="s">
         <v>135</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -4100,36 +4109,36 @@
       <c r="E72" s="45"/>
       <c r="F72" s="45"/>
       <c r="G72" s="45"/>
-      <c r="H72" s="107"/>
-      <c r="I72" s="68" t="s">
+      <c r="H72" s="85"/>
+      <c r="I72" s="67" t="s">
         <v>137</v>
       </c>
       <c r="J72" s="45"/>
       <c r="K72" s="45"/>
       <c r="L72" s="45"/>
-      <c r="M72" s="102"/>
-      <c r="N72" s="106"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="84"/>
     </row>
     <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="97"/>
+      <c r="A73" s="75"/>
       <c r="B73" s="45"/>
       <c r="C73" s="45"/>
       <c r="D73" s="45"/>
       <c r="E73" s="45"/>
       <c r="F73" s="45"/>
       <c r="G73" s="45"/>
-      <c r="H73" s="107"/>
-      <c r="I73" s="68" t="s">
+      <c r="H73" s="85"/>
+      <c r="I73" s="67" t="s">
         <v>138</v>
       </c>
       <c r="J73" s="45"/>
       <c r="K73" s="45"/>
       <c r="L73" s="45"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="106"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="84"/>
     </row>
     <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="97" t="s">
+      <c r="A74" s="75" t="s">
         <v>139</v>
       </c>
       <c r="B74" s="45" t="s">
@@ -4140,36 +4149,36 @@
       <c r="E74" s="45"/>
       <c r="F74" s="45"/>
       <c r="G74" s="45"/>
-      <c r="H74" s="107"/>
-      <c r="I74" s="68" t="s">
+      <c r="H74" s="85"/>
+      <c r="I74" s="67" t="s">
         <v>141</v>
       </c>
       <c r="J74" s="45"/>
       <c r="K74" s="45"/>
       <c r="L74" s="45"/>
-      <c r="M74" s="102"/>
-      <c r="N74" s="106"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="84"/>
     </row>
     <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="97"/>
+      <c r="A75" s="75"/>
       <c r="B75" s="45"/>
       <c r="C75" s="45"/>
       <c r="D75" s="45"/>
       <c r="E75" s="45"/>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
-      <c r="H75" s="107"/>
-      <c r="I75" s="68" t="s">
+      <c r="H75" s="85"/>
+      <c r="I75" s="67" t="s">
         <v>142</v>
       </c>
       <c r="J75" s="45"/>
       <c r="K75" s="45"/>
       <c r="L75" s="45"/>
-      <c r="M75" s="102"/>
-      <c r="N75" s="106"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="84"/>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="97" t="s">
+      <c r="A76" s="75" t="s">
         <v>143</v>
       </c>
       <c r="B76" s="45" t="s">
@@ -4180,36 +4189,36 @@
       <c r="E76" s="45"/>
       <c r="F76" s="45"/>
       <c r="G76" s="45"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="118" t="s">
+      <c r="H76" s="85"/>
+      <c r="I76" s="95" t="s">
         <v>144</v>
       </c>
       <c r="J76" s="45"/>
       <c r="K76" s="45"/>
       <c r="L76" s="45"/>
-      <c r="M76" s="102"/>
-      <c r="N76" s="106"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="84"/>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="97"/>
+      <c r="A77" s="75"/>
       <c r="B77" s="45"/>
       <c r="C77" s="45"/>
       <c r="D77" s="45"/>
       <c r="E77" s="45"/>
       <c r="F77" s="45"/>
       <c r="G77" s="45"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="68" t="s">
+      <c r="H77" s="85"/>
+      <c r="I77" s="67" t="s">
         <v>145</v>
       </c>
       <c r="J77" s="45"/>
       <c r="K77" s="45"/>
       <c r="L77" s="45"/>
-      <c r="M77" s="102"/>
-      <c r="N77" s="106"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="84"/>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="97" t="s">
+      <c r="A78" s="75" t="s">
         <v>146</v>
       </c>
       <c r="B78" s="45" t="s">
@@ -4220,36 +4229,36 @@
       <c r="E78" s="45"/>
       <c r="F78" s="45"/>
       <c r="G78" s="45"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="68" t="s">
+      <c r="H78" s="85"/>
+      <c r="I78" s="67" t="s">
         <v>147</v>
       </c>
       <c r="J78" s="45"/>
       <c r="K78" s="45"/>
       <c r="L78" s="45"/>
-      <c r="M78" s="102"/>
-      <c r="N78" s="106"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="84"/>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="97"/>
+      <c r="A79" s="75"/>
       <c r="B79" s="45"/>
       <c r="C79" s="45"/>
       <c r="D79" s="45"/>
       <c r="E79" s="45"/>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="68" t="s">
+      <c r="H79" s="85"/>
+      <c r="I79" s="67" t="s">
         <v>148</v>
       </c>
       <c r="J79" s="45"/>
       <c r="K79" s="45"/>
       <c r="L79" s="45"/>
-      <c r="M79" s="102"/>
-      <c r="N79" s="106"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="84"/>
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="97" t="s">
+      <c r="A80" s="75" t="s">
         <v>149</v>
       </c>
       <c r="B80" s="45" t="s">
@@ -4260,36 +4269,36 @@
       <c r="E80" s="45"/>
       <c r="F80" s="45"/>
       <c r="G80" s="45"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="68" t="s">
+      <c r="H80" s="85"/>
+      <c r="I80" s="67" t="s">
         <v>150</v>
       </c>
       <c r="J80" s="45"/>
       <c r="K80" s="45"/>
       <c r="L80" s="45"/>
-      <c r="M80" s="102"/>
-      <c r="N80" s="106"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="84"/>
     </row>
     <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="97"/>
+      <c r="A81" s="75"/>
       <c r="B81" s="45"/>
       <c r="C81" s="45"/>
       <c r="D81" s="45"/>
       <c r="E81" s="45"/>
       <c r="F81" s="45"/>
       <c r="G81" s="45"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="68" t="s">
+      <c r="H81" s="85"/>
+      <c r="I81" s="67" t="s">
         <v>151</v>
       </c>
       <c r="J81" s="45"/>
       <c r="K81" s="45"/>
       <c r="L81" s="45"/>
-      <c r="M81" s="102"/>
-      <c r="N81" s="106"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="84"/>
     </row>
     <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="97" t="s">
+      <c r="A82" s="75" t="s">
         <v>152</v>
       </c>
       <c r="B82" s="45" t="s">
@@ -4300,36 +4309,36 @@
       <c r="E82" s="45"/>
       <c r="F82" s="45"/>
       <c r="G82" s="45"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="68" t="s">
+      <c r="H82" s="85"/>
+      <c r="I82" s="67" t="s">
         <v>153</v>
       </c>
       <c r="J82" s="45"/>
       <c r="K82" s="45"/>
       <c r="L82" s="45"/>
-      <c r="M82" s="102"/>
-      <c r="N82" s="106"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="84"/>
     </row>
     <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="97"/>
+      <c r="A83" s="75"/>
       <c r="B83" s="45"/>
       <c r="C83" s="45"/>
       <c r="D83" s="45"/>
       <c r="E83" s="45"/>
       <c r="F83" s="45"/>
       <c r="G83" s="45"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="68" t="s">
+      <c r="H83" s="85"/>
+      <c r="I83" s="67" t="s">
         <v>154</v>
       </c>
       <c r="J83" s="45"/>
       <c r="K83" s="45"/>
       <c r="L83" s="45"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="106"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="84"/>
     </row>
     <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="97" t="s">
+      <c r="A84" s="75" t="s">
         <v>155</v>
       </c>
       <c r="B84" s="45" t="s">
@@ -4340,36 +4349,36 @@
       <c r="E84" s="45"/>
       <c r="F84" s="45"/>
       <c r="G84" s="45"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="68" t="s">
+      <c r="H84" s="85"/>
+      <c r="I84" s="67" t="s">
         <v>156</v>
       </c>
       <c r="J84" s="45"/>
       <c r="K84" s="45"/>
       <c r="L84" s="45"/>
-      <c r="M84" s="102"/>
-      <c r="N84" s="106"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="84"/>
     </row>
     <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="97"/>
+      <c r="A85" s="75"/>
       <c r="B85" s="45"/>
       <c r="C85" s="45"/>
       <c r="D85" s="45"/>
       <c r="E85" s="45"/>
       <c r="F85" s="45"/>
       <c r="G85" s="45"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="68" t="s">
+      <c r="H85" s="85"/>
+      <c r="I85" s="67" t="s">
         <v>157</v>
       </c>
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
       <c r="L85" s="45"/>
-      <c r="M85" s="102"/>
-      <c r="N85" s="106"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="84"/>
     </row>
     <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="97"/>
+      <c r="A86" s="75"/>
       <c r="B86" s="45" t="s">
         <v>158</v>
       </c>
@@ -4380,16 +4389,16 @@
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="45"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="68"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="67"/>
       <c r="J86" s="45"/>
       <c r="K86" s="45"/>
       <c r="L86" s="45"/>
-      <c r="M86" s="102"/>
-      <c r="N86" s="106"/>
+      <c r="M86" s="80"/>
+      <c r="N86" s="84"/>
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="97" t="s">
+      <c r="A87" s="75" t="s">
         <v>160</v>
       </c>
       <c r="B87" s="45" t="s">
@@ -4402,36 +4411,36 @@
       </c>
       <c r="F87" s="45"/>
       <c r="G87" s="45"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="68" t="s">
+      <c r="H87" s="85"/>
+      <c r="I87" s="67" t="s">
         <v>162</v>
       </c>
       <c r="J87" s="45"/>
       <c r="K87" s="45"/>
       <c r="L87" s="45"/>
-      <c r="M87" s="102"/>
-      <c r="N87" s="106"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="84"/>
     </row>
     <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="97"/>
+      <c r="A88" s="75"/>
       <c r="B88" s="45"/>
       <c r="C88" s="45"/>
       <c r="D88" s="45"/>
       <c r="E88" s="45"/>
       <c r="F88" s="45"/>
       <c r="G88" s="45"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="68" t="s">
+      <c r="H88" s="85"/>
+      <c r="I88" s="67" t="s">
         <v>163</v>
       </c>
       <c r="J88" s="45"/>
       <c r="K88" s="45"/>
       <c r="L88" s="45"/>
-      <c r="M88" s="102"/>
-      <c r="N88" s="106"/>
+      <c r="M88" s="80"/>
+      <c r="N88" s="84"/>
     </row>
     <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="97"/>
+      <c r="A89" s="75"/>
       <c r="B89" s="45"/>
       <c r="C89" s="45"/>
       <c r="D89" s="45"/>
@@ -4440,18 +4449,18 @@
       </c>
       <c r="F89" s="45"/>
       <c r="G89" s="45"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="68" t="s">
+      <c r="H89" s="85"/>
+      <c r="I89" s="67" t="s">
         <v>164</v>
       </c>
       <c r="J89" s="45"/>
       <c r="K89" s="45"/>
       <c r="L89" s="45"/>
-      <c r="M89" s="102"/>
-      <c r="N89" s="106"/>
+      <c r="M89" s="80"/>
+      <c r="N89" s="84"/>
     </row>
     <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="97"/>
+      <c r="A90" s="75"/>
       <c r="B90" s="45"/>
       <c r="C90" s="45"/>
       <c r="D90" s="45"/>
@@ -4460,18 +4469,18 @@
       </c>
       <c r="F90" s="45"/>
       <c r="G90" s="45"/>
-      <c r="H90" s="107"/>
-      <c r="I90" s="118" t="s">
+      <c r="H90" s="85"/>
+      <c r="I90" s="95" t="s">
         <v>166</v>
       </c>
       <c r="J90" s="45"/>
       <c r="K90" s="45"/>
       <c r="L90" s="45"/>
-      <c r="M90" s="102"/>
-      <c r="N90" s="106"/>
+      <c r="M90" s="80"/>
+      <c r="N90" s="84"/>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="97"/>
+      <c r="A91" s="75"/>
       <c r="B91" s="45"/>
       <c r="C91" s="45"/>
       <c r="D91" s="45"/>
@@ -4480,18 +4489,18 @@
       </c>
       <c r="F91" s="45"/>
       <c r="G91" s="45"/>
-      <c r="H91" s="107"/>
-      <c r="I91" s="68" t="s">
+      <c r="H91" s="85"/>
+      <c r="I91" s="67" t="s">
         <v>168</v>
       </c>
       <c r="J91" s="45"/>
       <c r="K91" s="45"/>
       <c r="L91" s="45"/>
-      <c r="M91" s="102"/>
-      <c r="N91" s="106"/>
+      <c r="M91" s="80"/>
+      <c r="N91" s="84"/>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="97"/>
+      <c r="A92" s="75"/>
       <c r="B92" s="45"/>
       <c r="C92" s="45"/>
       <c r="D92" s="45"/>
@@ -4500,18 +4509,18 @@
       </c>
       <c r="F92" s="45"/>
       <c r="G92" s="45"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="68" t="s">
+      <c r="H92" s="85"/>
+      <c r="I92" s="67" t="s">
         <v>170</v>
       </c>
       <c r="J92" s="45"/>
       <c r="K92" s="45"/>
       <c r="L92" s="45"/>
-      <c r="M92" s="102"/>
-      <c r="N92" s="106"/>
+      <c r="M92" s="80"/>
+      <c r="N92" s="84"/>
     </row>
     <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="97"/>
+      <c r="A93" s="75"/>
       <c r="B93" s="45"/>
       <c r="C93" s="45"/>
       <c r="D93" s="45"/>
@@ -4520,18 +4529,18 @@
       </c>
       <c r="F93" s="45"/>
       <c r="G93" s="45"/>
-      <c r="H93" s="107"/>
-      <c r="I93" s="68" t="s">
+      <c r="H93" s="85"/>
+      <c r="I93" s="67" t="s">
         <v>172</v>
       </c>
       <c r="J93" s="45"/>
       <c r="K93" s="45"/>
       <c r="L93" s="45"/>
-      <c r="M93" s="102"/>
-      <c r="N93" s="106"/>
+      <c r="M93" s="80"/>
+      <c r="N93" s="84"/>
     </row>
     <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="97"/>
+      <c r="A94" s="75"/>
       <c r="B94" s="45"/>
       <c r="C94" s="45"/>
       <c r="D94" s="45"/>
@@ -4540,18 +4549,18 @@
       </c>
       <c r="F94" s="45"/>
       <c r="G94" s="45"/>
-      <c r="H94" s="107"/>
-      <c r="I94" s="68" t="s">
+      <c r="H94" s="85"/>
+      <c r="I94" s="67" t="s">
         <v>174</v>
       </c>
       <c r="J94" s="45"/>
       <c r="K94" s="45"/>
       <c r="L94" s="45"/>
-      <c r="M94" s="102"/>
-      <c r="N94" s="106"/>
+      <c r="M94" s="80"/>
+      <c r="N94" s="84"/>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="97" t="s">
+      <c r="A95" s="75" t="s">
         <v>175</v>
       </c>
       <c r="B95" s="45" t="s">
@@ -4564,36 +4573,36 @@
       </c>
       <c r="F95" s="45"/>
       <c r="G95" s="45"/>
-      <c r="H95" s="107"/>
-      <c r="I95" s="68" t="s">
+      <c r="H95" s="85"/>
+      <c r="I95" s="67" t="s">
         <v>177</v>
       </c>
       <c r="J95" s="45"/>
       <c r="K95" s="45"/>
       <c r="L95" s="45"/>
-      <c r="M95" s="102"/>
-      <c r="N95" s="106"/>
+      <c r="M95" s="80"/>
+      <c r="N95" s="84"/>
     </row>
     <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="97"/>
+      <c r="A96" s="75"/>
       <c r="B96" s="45"/>
       <c r="C96" s="45"/>
       <c r="D96" s="45"/>
       <c r="E96" s="45"/>
       <c r="F96" s="45"/>
       <c r="G96" s="45"/>
-      <c r="H96" s="107"/>
-      <c r="I96" s="68" t="s">
+      <c r="H96" s="85"/>
+      <c r="I96" s="67" t="s">
         <v>178</v>
       </c>
       <c r="J96" s="45"/>
       <c r="K96" s="45"/>
       <c r="L96" s="45"/>
-      <c r="M96" s="102"/>
-      <c r="N96" s="106"/>
+      <c r="M96" s="80"/>
+      <c r="N96" s="84"/>
     </row>
     <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="97"/>
+      <c r="A97" s="75"/>
       <c r="B97" s="45"/>
       <c r="C97" s="45"/>
       <c r="D97" s="45"/>
@@ -4602,18 +4611,18 @@
       </c>
       <c r="F97" s="45"/>
       <c r="G97" s="45"/>
-      <c r="H97" s="107"/>
-      <c r="I97" s="118" t="s">
+      <c r="H97" s="85"/>
+      <c r="I97" s="95" t="s">
         <v>179</v>
       </c>
       <c r="J97" s="45"/>
       <c r="K97" s="45"/>
       <c r="L97" s="45"/>
-      <c r="M97" s="102"/>
-      <c r="N97" s="106"/>
+      <c r="M97" s="80"/>
+      <c r="N97" s="84"/>
     </row>
     <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="97"/>
+      <c r="A98" s="75"/>
       <c r="B98" s="45"/>
       <c r="C98" s="45"/>
       <c r="D98" s="45"/>
@@ -4622,18 +4631,18 @@
       </c>
       <c r="F98" s="45"/>
       <c r="G98" s="45"/>
-      <c r="H98" s="107"/>
-      <c r="I98" s="68" t="s">
+      <c r="H98" s="85"/>
+      <c r="I98" s="67" t="s">
         <v>180</v>
       </c>
       <c r="J98" s="45"/>
       <c r="K98" s="45"/>
       <c r="L98" s="45"/>
-      <c r="M98" s="102"/>
-      <c r="N98" s="106"/>
+      <c r="M98" s="80"/>
+      <c r="N98" s="84"/>
     </row>
     <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="97"/>
+      <c r="A99" s="75"/>
       <c r="B99" s="45"/>
       <c r="C99" s="45"/>
       <c r="D99" s="45"/>
@@ -4642,18 +4651,18 @@
       </c>
       <c r="F99" s="45"/>
       <c r="G99" s="45"/>
-      <c r="H99" s="107"/>
-      <c r="I99" s="68" t="s">
+      <c r="H99" s="85"/>
+      <c r="I99" s="67" t="s">
         <v>181</v>
       </c>
       <c r="J99" s="45"/>
       <c r="K99" s="45"/>
       <c r="L99" s="45"/>
-      <c r="M99" s="102"/>
-      <c r="N99" s="106"/>
+      <c r="M99" s="80"/>
+      <c r="N99" s="84"/>
     </row>
     <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="97"/>
+      <c r="A100" s="75"/>
       <c r="B100" s="45"/>
       <c r="C100" s="45"/>
       <c r="D100" s="45"/>
@@ -4662,18 +4671,18 @@
       </c>
       <c r="F100" s="45"/>
       <c r="G100" s="45"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="68" t="s">
+      <c r="H100" s="85"/>
+      <c r="I100" s="67" t="s">
         <v>182</v>
       </c>
       <c r="J100" s="45"/>
       <c r="K100" s="45"/>
       <c r="L100" s="45"/>
-      <c r="M100" s="102"/>
-      <c r="N100" s="106"/>
+      <c r="M100" s="80"/>
+      <c r="N100" s="84"/>
     </row>
     <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="97"/>
+      <c r="A101" s="75"/>
       <c r="B101" s="45"/>
       <c r="C101" s="45"/>
       <c r="D101" s="45"/>
@@ -4682,18 +4691,18 @@
       </c>
       <c r="F101" s="45"/>
       <c r="G101" s="45"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="68" t="s">
+      <c r="H101" s="85"/>
+      <c r="I101" s="67" t="s">
         <v>183</v>
       </c>
       <c r="J101" s="45"/>
       <c r="K101" s="45"/>
       <c r="L101" s="45"/>
-      <c r="M101" s="102"/>
-      <c r="N101" s="106"/>
+      <c r="M101" s="80"/>
+      <c r="N101" s="84"/>
     </row>
     <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="97" t="s">
+      <c r="A102" s="75" t="s">
         <v>184</v>
       </c>
       <c r="B102" s="45" t="s">
@@ -4706,36 +4715,36 @@
       </c>
       <c r="F102" s="45"/>
       <c r="G102" s="45"/>
-      <c r="H102" s="107"/>
-      <c r="I102" s="118" t="s">
+      <c r="H102" s="85"/>
+      <c r="I102" s="95" t="s">
         <v>186</v>
       </c>
       <c r="J102" s="45"/>
       <c r="K102" s="45"/>
       <c r="L102" s="45"/>
-      <c r="M102" s="102"/>
-      <c r="N102" s="106"/>
+      <c r="M102" s="80"/>
+      <c r="N102" s="84"/>
     </row>
     <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="97"/>
+      <c r="A103" s="75"/>
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
       <c r="E103" s="45"/>
       <c r="F103" s="45"/>
       <c r="G103" s="45"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="68" t="s">
+      <c r="H103" s="85"/>
+      <c r="I103" s="67" t="s">
         <v>187</v>
       </c>
       <c r="J103" s="45"/>
       <c r="K103" s="45"/>
       <c r="L103" s="45"/>
-      <c r="M103" s="102"/>
-      <c r="N103" s="106"/>
+      <c r="M103" s="80"/>
+      <c r="N103" s="84"/>
     </row>
     <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="97"/>
+      <c r="A104" s="75"/>
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
@@ -4744,18 +4753,18 @@
       </c>
       <c r="F104" s="45"/>
       <c r="G104" s="45"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="118" t="s">
+      <c r="H104" s="85"/>
+      <c r="I104" s="95" t="s">
         <v>188</v>
       </c>
       <c r="J104" s="45"/>
       <c r="K104" s="45"/>
       <c r="L104" s="45"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="106"/>
+      <c r="M104" s="80"/>
+      <c r="N104" s="84"/>
     </row>
     <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="97"/>
+      <c r="A105" s="75"/>
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
@@ -4764,18 +4773,18 @@
       </c>
       <c r="F105" s="45"/>
       <c r="G105" s="45"/>
-      <c r="H105" s="107"/>
-      <c r="I105" s="118" t="s">
+      <c r="H105" s="85"/>
+      <c r="I105" s="95" t="s">
         <v>189</v>
       </c>
       <c r="J105" s="45"/>
       <c r="K105" s="45"/>
       <c r="L105" s="45"/>
-      <c r="M105" s="102"/>
-      <c r="N105" s="106"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="84"/>
     </row>
     <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="97"/>
+      <c r="A106" s="75"/>
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
@@ -4784,18 +4793,18 @@
       </c>
       <c r="F106" s="45"/>
       <c r="G106" s="45"/>
-      <c r="H106" s="107"/>
-      <c r="I106" s="118" t="s">
+      <c r="H106" s="85"/>
+      <c r="I106" s="95" t="s">
         <v>190</v>
       </c>
       <c r="J106" s="45"/>
       <c r="K106" s="45"/>
       <c r="L106" s="45"/>
-      <c r="M106" s="102"/>
-      <c r="N106" s="106"/>
+      <c r="M106" s="80"/>
+      <c r="N106" s="84"/>
     </row>
     <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="97"/>
+      <c r="A107" s="75"/>
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
@@ -4804,18 +4813,18 @@
       </c>
       <c r="F107" s="45"/>
       <c r="G107" s="45"/>
-      <c r="H107" s="107"/>
-      <c r="I107" s="118" t="s">
+      <c r="H107" s="85"/>
+      <c r="I107" s="95" t="s">
         <v>191</v>
       </c>
       <c r="J107" s="45"/>
       <c r="K107" s="45"/>
       <c r="L107" s="45"/>
-      <c r="M107" s="102"/>
-      <c r="N107" s="106"/>
+      <c r="M107" s="80"/>
+      <c r="N107" s="84"/>
     </row>
     <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="99" t="s">
+      <c r="A108" s="77" t="s">
         <v>192</v>
       </c>
       <c r="B108" s="45" t="s">
@@ -4828,36 +4837,36 @@
       </c>
       <c r="F108" s="45"/>
       <c r="G108" s="45"/>
-      <c r="H108" s="107"/>
-      <c r="I108" s="68" t="s">
+      <c r="H108" s="85"/>
+      <c r="I108" s="67" t="s">
         <v>194</v>
       </c>
       <c r="J108" s="45"/>
       <c r="K108" s="45"/>
-      <c r="L108" s="107"/>
-      <c r="M108" s="107"/>
-      <c r="N108" s="107"/>
+      <c r="L108" s="85"/>
+      <c r="M108" s="85"/>
+      <c r="N108" s="85"/>
     </row>
     <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="99"/>
+      <c r="A109" s="77"/>
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
       <c r="E109" s="45"/>
       <c r="F109" s="45"/>
       <c r="G109" s="45"/>
-      <c r="H109" s="107"/>
-      <c r="I109" s="68" t="s">
+      <c r="H109" s="85"/>
+      <c r="I109" s="67" t="s">
         <v>195</v>
       </c>
       <c r="J109" s="45"/>
       <c r="K109" s="45"/>
-      <c r="L109" s="107"/>
-      <c r="M109" s="107"/>
-      <c r="N109" s="107"/>
+      <c r="L109" s="85"/>
+      <c r="M109" s="85"/>
+      <c r="N109" s="85"/>
     </row>
     <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="99"/>
+      <c r="A110" s="77"/>
       <c r="B110" s="45"/>
       <c r="C110" s="45"/>
       <c r="D110" s="45"/>
@@ -4866,18 +4875,18 @@
       </c>
       <c r="F110" s="45"/>
       <c r="G110" s="45"/>
-      <c r="H110" s="107"/>
-      <c r="I110" s="68" t="s">
+      <c r="H110" s="85"/>
+      <c r="I110" s="67" t="s">
         <v>196</v>
       </c>
       <c r="J110" s="45"/>
       <c r="K110" s="45"/>
-      <c r="L110" s="107"/>
-      <c r="M110" s="107"/>
-      <c r="N110" s="107"/>
+      <c r="L110" s="85"/>
+      <c r="M110" s="85"/>
+      <c r="N110" s="85"/>
     </row>
     <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="99"/>
+      <c r="A111" s="77"/>
       <c r="B111" s="45"/>
       <c r="C111" s="45"/>
       <c r="D111" s="45"/>
@@ -4886,18 +4895,18 @@
       </c>
       <c r="F111" s="45"/>
       <c r="G111" s="45"/>
-      <c r="H111" s="107"/>
-      <c r="I111" s="68" t="s">
+      <c r="H111" s="85"/>
+      <c r="I111" s="67" t="s">
         <v>197</v>
       </c>
       <c r="J111" s="45"/>
       <c r="K111" s="45"/>
-      <c r="L111" s="107"/>
-      <c r="M111" s="107"/>
-      <c r="N111" s="107"/>
+      <c r="L111" s="85"/>
+      <c r="M111" s="85"/>
+      <c r="N111" s="85"/>
     </row>
     <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="99"/>
+      <c r="A112" s="77"/>
       <c r="B112" s="45"/>
       <c r="C112" s="45"/>
       <c r="D112" s="45"/>
@@ -4906,18 +4915,18 @@
       </c>
       <c r="F112" s="45"/>
       <c r="G112" s="45"/>
-      <c r="H112" s="107"/>
-      <c r="I112" s="68" t="s">
+      <c r="H112" s="85"/>
+      <c r="I112" s="67" t="s">
         <v>198</v>
       </c>
       <c r="J112" s="45"/>
       <c r="K112" s="45"/>
-      <c r="L112" s="107"/>
-      <c r="M112" s="107"/>
-      <c r="N112" s="107"/>
+      <c r="L112" s="85"/>
+      <c r="M112" s="85"/>
+      <c r="N112" s="85"/>
     </row>
     <row r="113" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="99" t="s">
+      <c r="A113" s="77" t="s">
         <v>199</v>
       </c>
       <c r="B113" s="45" t="s">
@@ -4930,36 +4939,36 @@
       </c>
       <c r="F113" s="45"/>
       <c r="G113" s="45"/>
-      <c r="H113" s="107"/>
-      <c r="I113" s="68" t="s">
+      <c r="H113" s="85"/>
+      <c r="I113" s="67" t="s">
         <v>201</v>
       </c>
       <c r="J113" s="45"/>
       <c r="K113" s="45"/>
-      <c r="L113" s="107"/>
-      <c r="M113" s="107"/>
-      <c r="N113" s="107"/>
+      <c r="L113" s="85"/>
+      <c r="M113" s="85"/>
+      <c r="N113" s="85"/>
     </row>
     <row r="114" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="99"/>
+      <c r="A114" s="77"/>
       <c r="B114" s="45"/>
       <c r="C114" s="45"/>
       <c r="D114" s="45"/>
       <c r="E114" s="45"/>
       <c r="F114" s="45"/>
       <c r="G114" s="45"/>
-      <c r="H114" s="107"/>
-      <c r="I114" s="68" t="s">
+      <c r="H114" s="85"/>
+      <c r="I114" s="67" t="s">
         <v>202</v>
       </c>
       <c r="J114" s="45"/>
       <c r="K114" s="45"/>
-      <c r="L114" s="107"/>
-      <c r="M114" s="107"/>
-      <c r="N114" s="107"/>
+      <c r="L114" s="85"/>
+      <c r="M114" s="85"/>
+      <c r="N114" s="85"/>
     </row>
     <row r="115" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="99"/>
+      <c r="A115" s="77"/>
       <c r="B115" s="45"/>
       <c r="C115" s="45"/>
       <c r="D115" s="45"/>
@@ -4968,18 +4977,18 @@
       </c>
       <c r="F115" s="45"/>
       <c r="G115" s="45"/>
-      <c r="H115" s="107"/>
-      <c r="I115" s="68" t="s">
+      <c r="H115" s="85"/>
+      <c r="I115" s="67" t="s">
         <v>203</v>
       </c>
       <c r="J115" s="45"/>
       <c r="K115" s="45"/>
-      <c r="L115" s="107"/>
-      <c r="M115" s="107"/>
-      <c r="N115" s="107"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
+      <c r="N115" s="85"/>
     </row>
     <row r="116" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="99"/>
+      <c r="A116" s="77"/>
       <c r="B116" s="45"/>
       <c r="C116" s="45"/>
       <c r="D116" s="45"/>
@@ -4988,18 +4997,18 @@
       </c>
       <c r="F116" s="45"/>
       <c r="G116" s="45"/>
-      <c r="H116" s="107"/>
-      <c r="I116" s="68" t="s">
+      <c r="H116" s="85"/>
+      <c r="I116" s="67" t="s">
         <v>204</v>
       </c>
       <c r="J116" s="45"/>
       <c r="K116" s="45"/>
-      <c r="L116" s="107"/>
-      <c r="M116" s="107"/>
-      <c r="N116" s="107"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
+      <c r="N116" s="85"/>
     </row>
     <row r="117" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="99" t="s">
+      <c r="A117" s="77" t="s">
         <v>205</v>
       </c>
       <c r="B117" s="45" t="s">
@@ -5012,36 +5021,36 @@
       </c>
       <c r="F117" s="45"/>
       <c r="G117" s="45"/>
-      <c r="H117" s="107"/>
-      <c r="I117" s="68" t="s">
+      <c r="H117" s="85"/>
+      <c r="I117" s="67" t="s">
         <v>207</v>
       </c>
       <c r="J117" s="45"/>
       <c r="K117" s="45"/>
-      <c r="L117" s="107"/>
-      <c r="M117" s="107"/>
-      <c r="N117" s="107"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
+      <c r="N117" s="85"/>
     </row>
     <row r="118" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="99"/>
+      <c r="A118" s="77"/>
       <c r="B118" s="45"/>
       <c r="C118" s="45"/>
       <c r="D118" s="45"/>
       <c r="E118" s="45"/>
       <c r="F118" s="45"/>
       <c r="G118" s="45"/>
-      <c r="H118" s="107"/>
-      <c r="I118" s="68" t="s">
+      <c r="H118" s="85"/>
+      <c r="I118" s="67" t="s">
         <v>208</v>
       </c>
       <c r="J118" s="45"/>
       <c r="K118" s="45"/>
-      <c r="L118" s="107"/>
-      <c r="M118" s="107"/>
-      <c r="N118" s="107"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
+      <c r="N118" s="85"/>
     </row>
     <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="99"/>
+      <c r="A119" s="77"/>
       <c r="B119" s="45"/>
       <c r="C119" s="45"/>
       <c r="D119" s="45"/>
@@ -5050,18 +5059,18 @@
       </c>
       <c r="F119" s="45"/>
       <c r="G119" s="45"/>
-      <c r="H119" s="107"/>
-      <c r="I119" s="68" t="s">
+      <c r="H119" s="85"/>
+      <c r="I119" s="67" t="s">
         <v>209</v>
       </c>
       <c r="J119" s="45"/>
       <c r="K119" s="45"/>
-      <c r="L119" s="107"/>
-      <c r="M119" s="107"/>
-      <c r="N119" s="107"/>
+      <c r="L119" s="85"/>
+      <c r="M119" s="85"/>
+      <c r="N119" s="85"/>
     </row>
     <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="99" t="s">
+      <c r="A120" s="77" t="s">
         <v>210</v>
       </c>
       <c r="B120" s="45" t="s">
@@ -5074,36 +5083,36 @@
       </c>
       <c r="F120" s="45"/>
       <c r="G120" s="45"/>
-      <c r="H120" s="107"/>
-      <c r="I120" s="68" t="s">
+      <c r="H120" s="85"/>
+      <c r="I120" s="67" t="s">
         <v>212</v>
       </c>
       <c r="J120" s="45"/>
       <c r="K120" s="45"/>
-      <c r="L120" s="107"/>
-      <c r="M120" s="107"/>
-      <c r="N120" s="107"/>
+      <c r="L120" s="85"/>
+      <c r="M120" s="85"/>
+      <c r="N120" s="85"/>
     </row>
     <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="99"/>
+      <c r="A121" s="77"/>
       <c r="B121" s="45"/>
       <c r="C121" s="45"/>
       <c r="D121" s="45"/>
       <c r="E121" s="45"/>
       <c r="F121" s="45"/>
       <c r="G121" s="45"/>
-      <c r="H121" s="107"/>
-      <c r="I121" s="68" t="s">
+      <c r="H121" s="85"/>
+      <c r="I121" s="67" t="s">
         <v>213</v>
       </c>
       <c r="J121" s="45"/>
       <c r="K121" s="45"/>
-      <c r="L121" s="107"/>
-      <c r="M121" s="107"/>
-      <c r="N121" s="107"/>
+      <c r="L121" s="85"/>
+      <c r="M121" s="85"/>
+      <c r="N121" s="85"/>
     </row>
     <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="99"/>
+      <c r="A122" s="77"/>
       <c r="B122" s="45" t="s">
         <v>214</v>
       </c>
@@ -5114,16 +5123,16 @@
       </c>
       <c r="F122" s="45"/>
       <c r="G122" s="45"/>
-      <c r="H122" s="107"/>
-      <c r="I122" s="68"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="67"/>
       <c r="J122" s="45"/>
       <c r="K122" s="45"/>
-      <c r="L122" s="107"/>
-      <c r="M122" s="107"/>
-      <c r="N122" s="107"/>
+      <c r="L122" s="85"/>
+      <c r="M122" s="85"/>
+      <c r="N122" s="85"/>
     </row>
     <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="99" t="s">
+      <c r="A123" s="77" t="s">
         <v>216</v>
       </c>
       <c r="B123" s="45" t="s">
@@ -5136,36 +5145,36 @@
       </c>
       <c r="F123" s="45"/>
       <c r="G123" s="45"/>
-      <c r="H123" s="107"/>
-      <c r="I123" s="68" t="s">
+      <c r="H123" s="85"/>
+      <c r="I123" s="67" t="s">
         <v>217</v>
       </c>
       <c r="J123" s="45"/>
       <c r="K123" s="45"/>
-      <c r="L123" s="107"/>
-      <c r="M123" s="107"/>
-      <c r="N123" s="107"/>
+      <c r="L123" s="85"/>
+      <c r="M123" s="85"/>
+      <c r="N123" s="85"/>
     </row>
     <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="99"/>
+      <c r="A124" s="77"/>
       <c r="B124" s="45"/>
       <c r="C124" s="45"/>
       <c r="D124" s="45"/>
       <c r="E124" s="45"/>
       <c r="F124" s="45"/>
       <c r="G124" s="45"/>
-      <c r="H124" s="107"/>
-      <c r="I124" s="68" t="s">
+      <c r="H124" s="85"/>
+      <c r="I124" s="67" t="s">
         <v>218</v>
       </c>
       <c r="J124" s="45"/>
       <c r="K124" s="45"/>
-      <c r="L124" s="107"/>
-      <c r="M124" s="107"/>
-      <c r="N124" s="107"/>
+      <c r="L124" s="85"/>
+      <c r="M124" s="85"/>
+      <c r="N124" s="85"/>
     </row>
     <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="99" t="s">
+      <c r="A125" s="77" t="s">
         <v>219</v>
       </c>
       <c r="B125" s="45" t="s">
@@ -5176,18 +5185,18 @@
       <c r="E125" s="45"/>
       <c r="F125" s="45"/>
       <c r="G125" s="45"/>
-      <c r="H125" s="107"/>
-      <c r="I125" s="68" t="s">
+      <c r="H125" s="85"/>
+      <c r="I125" s="67" t="s">
         <v>220</v>
       </c>
       <c r="J125" s="45"/>
       <c r="K125" s="45"/>
-      <c r="L125" s="107"/>
-      <c r="M125" s="107"/>
-      <c r="N125" s="107"/>
+      <c r="L125" s="85"/>
+      <c r="M125" s="85"/>
+      <c r="N125" s="85"/>
     </row>
     <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="97"/>
+      <c r="A126" s="75"/>
       <c r="B126" s="45" t="s">
         <v>165</v>
       </c>
@@ -5196,18 +5205,18 @@
       <c r="E126" s="45"/>
       <c r="F126" s="45"/>
       <c r="G126" s="45"/>
-      <c r="H126" s="107"/>
-      <c r="I126" s="68" t="s">
+      <c r="H126" s="85"/>
+      <c r="I126" s="67" t="s">
         <v>221</v>
       </c>
       <c r="J126" s="45"/>
       <c r="K126" s="45"/>
-      <c r="L126" s="107"/>
-      <c r="M126" s="107"/>
-      <c r="N126" s="107"/>
+      <c r="L126" s="85"/>
+      <c r="M126" s="85"/>
+      <c r="N126" s="85"/>
     </row>
     <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="97"/>
+      <c r="A127" s="75"/>
       <c r="B127" s="45" t="s">
         <v>167</v>
       </c>
@@ -5216,18 +5225,18 @@
       <c r="E127" s="45"/>
       <c r="F127" s="45"/>
       <c r="G127" s="45"/>
-      <c r="H127" s="107"/>
-      <c r="I127" s="68" t="s">
+      <c r="H127" s="85"/>
+      <c r="I127" s="67" t="s">
         <v>222</v>
       </c>
       <c r="J127" s="45"/>
       <c r="K127" s="45"/>
-      <c r="L127" s="107"/>
-      <c r="M127" s="107"/>
-      <c r="N127" s="107"/>
+      <c r="L127" s="85"/>
+      <c r="M127" s="85"/>
+      <c r="N127" s="85"/>
     </row>
     <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="97"/>
+      <c r="A128" s="75"/>
       <c r="B128" s="45" t="s">
         <v>169</v>
       </c>
@@ -5236,18 +5245,18 @@
       <c r="E128" s="45"/>
       <c r="F128" s="45"/>
       <c r="G128" s="45"/>
-      <c r="H128" s="107"/>
-      <c r="I128" s="68" t="s">
+      <c r="H128" s="85"/>
+      <c r="I128" s="67" t="s">
         <v>223</v>
       </c>
       <c r="J128" s="45"/>
       <c r="K128" s="45"/>
-      <c r="L128" s="107"/>
-      <c r="M128" s="107"/>
-      <c r="N128" s="107"/>
+      <c r="L128" s="85"/>
+      <c r="M128" s="85"/>
+      <c r="N128" s="85"/>
     </row>
     <row r="129" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="97"/>
+      <c r="A129" s="75"/>
       <c r="B129" s="45" t="s">
         <v>171</v>
       </c>
@@ -5256,18 +5265,18 @@
       <c r="E129" s="45"/>
       <c r="F129" s="45"/>
       <c r="G129" s="45"/>
-      <c r="H129" s="107"/>
-      <c r="I129" s="68" t="s">
+      <c r="H129" s="85"/>
+      <c r="I129" s="67" t="s">
         <v>224</v>
       </c>
       <c r="J129" s="45"/>
       <c r="K129" s="45"/>
-      <c r="L129" s="107"/>
-      <c r="M129" s="107"/>
-      <c r="N129" s="107"/>
+      <c r="L129" s="85"/>
+      <c r="M129" s="85"/>
+      <c r="N129" s="85"/>
     </row>
     <row r="130" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="97"/>
+      <c r="A130" s="75"/>
       <c r="B130" s="45" t="s">
         <v>173</v>
       </c>
@@ -5276,18 +5285,18 @@
       <c r="E130" s="45"/>
       <c r="F130" s="45"/>
       <c r="G130" s="45"/>
-      <c r="H130" s="107"/>
-      <c r="I130" s="68" t="s">
+      <c r="H130" s="85"/>
+      <c r="I130" s="67" t="s">
         <v>225</v>
       </c>
       <c r="J130" s="45"/>
       <c r="K130" s="45"/>
-      <c r="L130" s="107"/>
-      <c r="M130" s="107"/>
-      <c r="N130" s="107"/>
+      <c r="L130" s="85"/>
+      <c r="M130" s="85"/>
+      <c r="N130" s="85"/>
     </row>
     <row r="131" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="97" t="s">
+      <c r="A131" s="75" t="s">
         <v>226</v>
       </c>
       <c r="B131" s="45" t="s">
@@ -5300,36 +5309,36 @@
       </c>
       <c r="F131" s="45"/>
       <c r="G131" s="45"/>
-      <c r="H131" s="107"/>
-      <c r="I131" s="68" t="s">
+      <c r="H131" s="85"/>
+      <c r="I131" s="67" t="s">
         <v>227</v>
       </c>
       <c r="J131" s="45"/>
       <c r="K131" s="45"/>
-      <c r="L131" s="107"/>
-      <c r="M131" s="107"/>
-      <c r="N131" s="107"/>
+      <c r="L131" s="85"/>
+      <c r="M131" s="85"/>
+      <c r="N131" s="85"/>
     </row>
     <row r="132" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="97"/>
+      <c r="A132" s="75"/>
       <c r="B132" s="45"/>
       <c r="C132" s="45"/>
       <c r="D132" s="45"/>
       <c r="E132" s="45"/>
       <c r="F132" s="45"/>
       <c r="G132" s="45"/>
-      <c r="H132" s="107"/>
-      <c r="I132" s="68" t="s">
+      <c r="H132" s="85"/>
+      <c r="I132" s="67" t="s">
         <v>228</v>
       </c>
       <c r="J132" s="45"/>
       <c r="K132" s="45"/>
-      <c r="L132" s="107"/>
-      <c r="M132" s="107"/>
-      <c r="N132" s="107"/>
+      <c r="L132" s="85"/>
+      <c r="M132" s="85"/>
+      <c r="N132" s="85"/>
     </row>
     <row r="133" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="97"/>
+      <c r="A133" s="75"/>
       <c r="B133" s="45" t="s">
         <v>165</v>
       </c>
@@ -5338,18 +5347,18 @@
       <c r="E133" s="45"/>
       <c r="F133" s="45"/>
       <c r="G133" s="45"/>
-      <c r="H133" s="107"/>
-      <c r="I133" s="118" t="s">
+      <c r="H133" s="85"/>
+      <c r="I133" s="95" t="s">
         <v>229</v>
       </c>
       <c r="J133" s="45"/>
       <c r="K133" s="45"/>
-      <c r="L133" s="107"/>
-      <c r="M133" s="107"/>
-      <c r="N133" s="107"/>
+      <c r="L133" s="85"/>
+      <c r="M133" s="85"/>
+      <c r="N133" s="85"/>
     </row>
     <row r="134" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="97"/>
+      <c r="A134" s="75"/>
       <c r="B134" s="45" t="s">
         <v>167</v>
       </c>
@@ -5358,18 +5367,18 @@
       <c r="E134" s="45"/>
       <c r="F134" s="45"/>
       <c r="G134" s="45"/>
-      <c r="H134" s="107"/>
-      <c r="I134" s="68" t="s">
+      <c r="H134" s="85"/>
+      <c r="I134" s="67" t="s">
         <v>230</v>
       </c>
       <c r="J134" s="45"/>
       <c r="K134" s="45"/>
-      <c r="L134" s="107"/>
-      <c r="M134" s="107"/>
-      <c r="N134" s="107"/>
+      <c r="L134" s="85"/>
+      <c r="M134" s="85"/>
+      <c r="N134" s="85"/>
     </row>
     <row r="135" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="97"/>
+      <c r="A135" s="75"/>
       <c r="B135" s="45" t="s">
         <v>169</v>
       </c>
@@ -5378,18 +5387,18 @@
       <c r="E135" s="45"/>
       <c r="F135" s="45"/>
       <c r="G135" s="45"/>
-      <c r="H135" s="107"/>
-      <c r="I135" s="68" t="s">
+      <c r="H135" s="85"/>
+      <c r="I135" s="67" t="s">
         <v>231</v>
       </c>
       <c r="J135" s="45"/>
       <c r="K135" s="45"/>
-      <c r="L135" s="107"/>
-      <c r="M135" s="107"/>
-      <c r="N135" s="107"/>
+      <c r="L135" s="85"/>
+      <c r="M135" s="85"/>
+      <c r="N135" s="85"/>
     </row>
     <row r="136" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="97"/>
+      <c r="A136" s="75"/>
       <c r="B136" s="45" t="s">
         <v>171</v>
       </c>
@@ -5398,18 +5407,18 @@
       <c r="E136" s="45"/>
       <c r="F136" s="45"/>
       <c r="G136" s="45"/>
-      <c r="H136" s="107"/>
-      <c r="I136" s="68" t="s">
+      <c r="H136" s="85"/>
+      <c r="I136" s="67" t="s">
         <v>232</v>
       </c>
       <c r="J136" s="45"/>
       <c r="K136" s="45"/>
-      <c r="L136" s="107"/>
-      <c r="M136" s="107"/>
-      <c r="N136" s="107"/>
+      <c r="L136" s="85"/>
+      <c r="M136" s="85"/>
+      <c r="N136" s="85"/>
     </row>
     <row r="137" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="97"/>
+      <c r="A137" s="75"/>
       <c r="B137" s="45" t="s">
         <v>173</v>
       </c>
@@ -5418,18 +5427,18 @@
       <c r="E137" s="45"/>
       <c r="F137" s="45"/>
       <c r="G137" s="45"/>
-      <c r="H137" s="107"/>
-      <c r="I137" s="68" t="s">
+      <c r="H137" s="85"/>
+      <c r="I137" s="67" t="s">
         <v>233</v>
       </c>
       <c r="J137" s="45"/>
       <c r="K137" s="45"/>
-      <c r="L137" s="107"/>
-      <c r="M137" s="107"/>
-      <c r="N137" s="107"/>
+      <c r="L137" s="85"/>
+      <c r="M137" s="85"/>
+      <c r="N137" s="85"/>
     </row>
     <row r="138" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="97" t="s">
+      <c r="A138" s="75" t="s">
         <v>234</v>
       </c>
       <c r="B138" s="45" t="s">
@@ -5442,36 +5451,36 @@
       </c>
       <c r="F138" s="45"/>
       <c r="G138" s="45"/>
-      <c r="H138" s="107"/>
-      <c r="I138" s="118" t="s">
+      <c r="H138" s="85"/>
+      <c r="I138" s="95" t="s">
         <v>235</v>
       </c>
       <c r="J138" s="45"/>
       <c r="K138" s="45"/>
-      <c r="L138" s="107"/>
-      <c r="M138" s="107"/>
-      <c r="N138" s="107"/>
+      <c r="L138" s="85"/>
+      <c r="M138" s="85"/>
+      <c r="N138" s="85"/>
     </row>
     <row r="139" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="97"/>
+      <c r="A139" s="75"/>
       <c r="B139" s="45"/>
       <c r="C139" s="45"/>
       <c r="D139" s="45"/>
       <c r="E139" s="45"/>
       <c r="F139" s="45"/>
       <c r="G139" s="45"/>
-      <c r="H139" s="107"/>
-      <c r="I139" s="68" t="s">
+      <c r="H139" s="85"/>
+      <c r="I139" s="67" t="s">
         <v>236</v>
       </c>
       <c r="J139" s="45"/>
       <c r="K139" s="45"/>
-      <c r="L139" s="107"/>
-      <c r="M139" s="107"/>
-      <c r="N139" s="107"/>
+      <c r="L139" s="85"/>
+      <c r="M139" s="85"/>
+      <c r="N139" s="85"/>
     </row>
     <row r="140" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="97"/>
+      <c r="A140" s="75"/>
       <c r="B140" s="45" t="s">
         <v>167</v>
       </c>
@@ -5480,18 +5489,18 @@
       <c r="E140" s="45"/>
       <c r="F140" s="45"/>
       <c r="G140" s="45"/>
-      <c r="H140" s="107"/>
-      <c r="I140" s="118" t="s">
+      <c r="H140" s="85"/>
+      <c r="I140" s="95" t="s">
         <v>237</v>
       </c>
       <c r="J140" s="45"/>
       <c r="K140" s="45"/>
-      <c r="L140" s="107"/>
-      <c r="M140" s="107"/>
-      <c r="N140" s="107"/>
+      <c r="L140" s="85"/>
+      <c r="M140" s="85"/>
+      <c r="N140" s="85"/>
     </row>
     <row r="141" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="97"/>
+      <c r="A141" s="75"/>
       <c r="B141" s="45" t="s">
         <v>169</v>
       </c>
@@ -5500,18 +5509,18 @@
       <c r="E141" s="45"/>
       <c r="F141" s="45"/>
       <c r="G141" s="45"/>
-      <c r="H141" s="107"/>
-      <c r="I141" s="118" t="s">
+      <c r="H141" s="85"/>
+      <c r="I141" s="95" t="s">
         <v>238</v>
       </c>
       <c r="J141" s="45"/>
       <c r="K141" s="45"/>
-      <c r="L141" s="107"/>
-      <c r="M141" s="107"/>
-      <c r="N141" s="107"/>
+      <c r="L141" s="85"/>
+      <c r="M141" s="85"/>
+      <c r="N141" s="85"/>
     </row>
     <row r="142" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="97"/>
+      <c r="A142" s="75"/>
       <c r="B142" s="45" t="s">
         <v>171</v>
       </c>
@@ -5520,18 +5529,18 @@
       <c r="E142" s="45"/>
       <c r="F142" s="45"/>
       <c r="G142" s="45"/>
-      <c r="H142" s="107"/>
-      <c r="I142" s="118" t="s">
+      <c r="H142" s="85"/>
+      <c r="I142" s="95" t="s">
         <v>239</v>
       </c>
       <c r="J142" s="45"/>
       <c r="K142" s="45"/>
-      <c r="L142" s="107"/>
-      <c r="M142" s="107"/>
-      <c r="N142" s="107"/>
+      <c r="L142" s="85"/>
+      <c r="M142" s="85"/>
+      <c r="N142" s="85"/>
     </row>
     <row r="143" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="97"/>
+      <c r="A143" s="75"/>
       <c r="B143" s="45" t="s">
         <v>173</v>
       </c>
@@ -5540,18 +5549,18 @@
       <c r="E143" s="45"/>
       <c r="F143" s="45"/>
       <c r="G143" s="45"/>
-      <c r="H143" s="107"/>
-      <c r="I143" s="118" t="s">
+      <c r="H143" s="85"/>
+      <c r="I143" s="95" t="s">
         <v>240</v>
       </c>
       <c r="J143" s="45"/>
       <c r="K143" s="45"/>
-      <c r="L143" s="107"/>
-      <c r="M143" s="107"/>
-      <c r="N143" s="107"/>
+      <c r="L143" s="85"/>
+      <c r="M143" s="85"/>
+      <c r="N143" s="85"/>
     </row>
     <row r="144" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="97" t="s">
+      <c r="A144" s="75" t="s">
         <v>241</v>
       </c>
       <c r="B144" s="45" t="s">
@@ -5564,36 +5573,36 @@
       </c>
       <c r="F144" s="45"/>
       <c r="G144" s="45"/>
-      <c r="H144" s="107"/>
-      <c r="I144" s="68" t="s">
+      <c r="H144" s="85"/>
+      <c r="I144" s="67" t="s">
         <v>242</v>
       </c>
       <c r="J144" s="45"/>
       <c r="K144" s="45"/>
-      <c r="L144" s="107"/>
-      <c r="M144" s="107"/>
-      <c r="N144" s="107"/>
+      <c r="L144" s="85"/>
+      <c r="M144" s="85"/>
+      <c r="N144" s="85"/>
     </row>
     <row r="145" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="97"/>
+      <c r="A145" s="75"/>
       <c r="B145" s="45"/>
       <c r="C145" s="45"/>
       <c r="D145" s="45"/>
       <c r="E145" s="45"/>
       <c r="F145" s="45"/>
       <c r="G145" s="45"/>
-      <c r="H145" s="107"/>
-      <c r="I145" s="68" t="s">
+      <c r="H145" s="85"/>
+      <c r="I145" s="67" t="s">
         <v>243</v>
       </c>
       <c r="J145" s="45"/>
       <c r="K145" s="45"/>
-      <c r="L145" s="107"/>
-      <c r="M145" s="107"/>
-      <c r="N145" s="107"/>
+      <c r="L145" s="85"/>
+      <c r="M145" s="85"/>
+      <c r="N145" s="85"/>
     </row>
     <row r="146" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="97"/>
+      <c r="A146" s="75"/>
       <c r="B146" s="45" t="s">
         <v>169</v>
       </c>
@@ -5602,18 +5611,18 @@
       <c r="E146" s="45"/>
       <c r="F146" s="45"/>
       <c r="G146" s="45"/>
-      <c r="H146" s="107"/>
-      <c r="I146" s="68" t="s">
+      <c r="H146" s="85"/>
+      <c r="I146" s="67" t="s">
         <v>244</v>
       </c>
       <c r="J146" s="45"/>
       <c r="K146" s="45"/>
-      <c r="L146" s="107"/>
-      <c r="M146" s="107"/>
-      <c r="N146" s="107"/>
+      <c r="L146" s="85"/>
+      <c r="M146" s="85"/>
+      <c r="N146" s="85"/>
     </row>
     <row r="147" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="97"/>
+      <c r="A147" s="75"/>
       <c r="B147" s="45" t="s">
         <v>171</v>
       </c>
@@ -5622,18 +5631,18 @@
       <c r="E147" s="45"/>
       <c r="F147" s="45"/>
       <c r="G147" s="45"/>
-      <c r="H147" s="107"/>
-      <c r="I147" s="68" t="s">
+      <c r="H147" s="85"/>
+      <c r="I147" s="67" t="s">
         <v>245</v>
       </c>
       <c r="J147" s="45"/>
       <c r="K147" s="45"/>
-      <c r="L147" s="107"/>
-      <c r="M147" s="107"/>
-      <c r="N147" s="107"/>
+      <c r="L147" s="85"/>
+      <c r="M147" s="85"/>
+      <c r="N147" s="85"/>
     </row>
     <row r="148" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="97"/>
+      <c r="A148" s="75"/>
       <c r="B148" s="45" t="s">
         <v>173</v>
       </c>
@@ -5642,18 +5651,18 @@
       <c r="E148" s="45"/>
       <c r="F148" s="45"/>
       <c r="G148" s="45"/>
-      <c r="H148" s="107"/>
-      <c r="I148" s="68" t="s">
+      <c r="H148" s="85"/>
+      <c r="I148" s="67" t="s">
         <v>246</v>
       </c>
       <c r="J148" s="45"/>
       <c r="K148" s="45"/>
-      <c r="L148" s="107"/>
-      <c r="M148" s="107"/>
-      <c r="N148" s="107"/>
+      <c r="L148" s="85"/>
+      <c r="M148" s="85"/>
+      <c r="N148" s="85"/>
     </row>
     <row r="149" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="97" t="s">
+      <c r="A149" s="75" t="s">
         <v>247</v>
       </c>
       <c r="B149" s="45" t="s">
@@ -5666,36 +5675,36 @@
       </c>
       <c r="F149" s="45"/>
       <c r="G149" s="45"/>
-      <c r="H149" s="107"/>
-      <c r="I149" s="68" t="s">
+      <c r="H149" s="85"/>
+      <c r="I149" s="67" t="s">
         <v>249</v>
       </c>
       <c r="J149" s="45"/>
       <c r="K149" s="45"/>
-      <c r="L149" s="107"/>
-      <c r="M149" s="107"/>
-      <c r="N149" s="107"/>
+      <c r="L149" s="85"/>
+      <c r="M149" s="85"/>
+      <c r="N149" s="85"/>
     </row>
     <row r="150" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="97"/>
+      <c r="A150" s="75"/>
       <c r="B150" s="45"/>
       <c r="C150" s="45"/>
       <c r="D150" s="45"/>
       <c r="E150" s="45"/>
       <c r="F150" s="45"/>
       <c r="G150" s="45"/>
-      <c r="H150" s="107"/>
-      <c r="I150" s="68" t="s">
+      <c r="H150" s="85"/>
+      <c r="I150" s="67" t="s">
         <v>250</v>
       </c>
       <c r="J150" s="45"/>
       <c r="K150" s="45"/>
-      <c r="L150" s="107"/>
-      <c r="M150" s="107"/>
-      <c r="N150" s="107"/>
+      <c r="L150" s="85"/>
+      <c r="M150" s="85"/>
+      <c r="N150" s="85"/>
     </row>
     <row r="151" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="97"/>
+      <c r="A151" s="75"/>
       <c r="B151" s="45" t="s">
         <v>171</v>
       </c>
@@ -5704,18 +5713,18 @@
       <c r="E151" s="45"/>
       <c r="F151" s="45"/>
       <c r="G151" s="45"/>
-      <c r="H151" s="107"/>
-      <c r="I151" s="68" t="s">
+      <c r="H151" s="85"/>
+      <c r="I151" s="67" t="s">
         <v>251</v>
       </c>
       <c r="J151" s="45"/>
       <c r="K151" s="45"/>
-      <c r="L151" s="107"/>
-      <c r="M151" s="107"/>
-      <c r="N151" s="107"/>
+      <c r="L151" s="85"/>
+      <c r="M151" s="85"/>
+      <c r="N151" s="85"/>
     </row>
     <row r="152" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="97"/>
+      <c r="A152" s="75"/>
       <c r="B152" s="45" t="s">
         <v>173</v>
       </c>
@@ -5724,18 +5733,18 @@
       <c r="E152" s="45"/>
       <c r="F152" s="45"/>
       <c r="G152" s="45"/>
-      <c r="H152" s="107"/>
-      <c r="I152" s="68" t="s">
+      <c r="H152" s="85"/>
+      <c r="I152" s="67" t="s">
         <v>252</v>
       </c>
       <c r="J152" s="45"/>
       <c r="K152" s="45"/>
-      <c r="L152" s="107"/>
-      <c r="M152" s="107"/>
-      <c r="N152" s="107"/>
+      <c r="L152" s="85"/>
+      <c r="M152" s="85"/>
+      <c r="N152" s="85"/>
     </row>
     <row r="153" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="97" t="s">
+      <c r="A153" s="75" t="s">
         <v>253</v>
       </c>
       <c r="B153" s="45" t="s">
@@ -5748,36 +5757,36 @@
       </c>
       <c r="F153" s="45"/>
       <c r="G153" s="45"/>
-      <c r="H153" s="107"/>
-      <c r="I153" s="68" t="s">
+      <c r="H153" s="85"/>
+      <c r="I153" s="67" t="s">
         <v>255</v>
       </c>
       <c r="J153" s="45"/>
       <c r="K153" s="45"/>
-      <c r="L153" s="107"/>
-      <c r="M153" s="107"/>
-      <c r="N153" s="107"/>
+      <c r="L153" s="85"/>
+      <c r="M153" s="85"/>
+      <c r="N153" s="85"/>
     </row>
     <row r="154" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="97"/>
+      <c r="A154" s="75"/>
       <c r="B154" s="45"/>
       <c r="C154" s="45"/>
       <c r="D154" s="45"/>
       <c r="E154" s="45"/>
       <c r="F154" s="45"/>
       <c r="G154" s="45"/>
-      <c r="H154" s="107"/>
-      <c r="I154" s="68" t="s">
+      <c r="H154" s="85"/>
+      <c r="I154" s="67" t="s">
         <v>256</v>
       </c>
       <c r="J154" s="45"/>
       <c r="K154" s="45"/>
-      <c r="L154" s="107"/>
-      <c r="M154" s="107"/>
-      <c r="N154" s="107"/>
+      <c r="L154" s="85"/>
+      <c r="M154" s="85"/>
+      <c r="N154" s="85"/>
     </row>
     <row r="155" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="96"/>
+      <c r="A155" s="74"/>
       <c r="B155" s="45" t="s">
         <v>173</v>
       </c>
@@ -5786,18 +5795,18 @@
       <c r="E155" s="45"/>
       <c r="F155" s="45"/>
       <c r="G155" s="45"/>
-      <c r="H155" s="107"/>
-      <c r="I155" s="68" t="s">
+      <c r="H155" s="85"/>
+      <c r="I155" s="67" t="s">
         <v>257</v>
       </c>
       <c r="J155" s="45"/>
       <c r="K155" s="45"/>
-      <c r="L155" s="107"/>
-      <c r="M155" s="107"/>
-      <c r="N155" s="107"/>
+      <c r="L155" s="85"/>
+      <c r="M155" s="85"/>
+      <c r="N155" s="85"/>
     </row>
     <row r="156" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="99" t="s">
+      <c r="A156" s="77" t="s">
         <v>258</v>
       </c>
       <c r="B156" s="45" t="s">
@@ -5810,165 +5819,171 @@
       </c>
       <c r="F156" s="45"/>
       <c r="G156" s="45"/>
-      <c r="H156" s="107"/>
-      <c r="I156" s="68" t="s">
+      <c r="H156" s="85"/>
+      <c r="I156" s="67" t="s">
         <v>259</v>
       </c>
       <c r="J156" s="45"/>
       <c r="K156" s="45"/>
-      <c r="L156" s="107"/>
-      <c r="M156" s="107"/>
-      <c r="N156" s="107"/>
+      <c r="L156" s="85"/>
+      <c r="M156" s="85"/>
+      <c r="N156" s="85"/>
     </row>
     <row r="157" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="99"/>
-      <c r="B157" s="70"/>
-      <c r="C157" s="70"/>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="113"/>
-      <c r="I157" s="68" t="s">
+      <c r="A157" s="77"/>
+      <c r="B157" s="69"/>
+      <c r="C157" s="69"/>
+      <c r="D157" s="69"/>
+      <c r="E157" s="69"/>
+      <c r="F157" s="69"/>
+      <c r="G157" s="69"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="67" t="s">
         <v>260</v>
       </c>
-      <c r="J157" s="70"/>
-      <c r="K157" s="70"/>
-      <c r="L157" s="113"/>
-      <c r="M157" s="113"/>
-      <c r="N157" s="113"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="90"/>
+      <c r="M157" s="90"/>
+      <c r="N157" s="90"/>
     </row>
     <row r="158" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="99"/>
-      <c r="B158" s="119" t="s">
+      <c r="A158" s="77"/>
+      <c r="B158" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="C158" s="119"/>
-      <c r="D158" s="119"/>
-      <c r="E158" s="119"/>
-      <c r="F158" s="119"/>
-      <c r="G158" s="119"/>
-      <c r="H158" s="119"/>
-      <c r="I158" s="123"/>
-      <c r="J158" s="119"/>
-      <c r="K158" s="119"/>
-      <c r="L158" s="114"/>
-      <c r="M158" s="114"/>
-      <c r="N158" s="114"/>
+      <c r="C158" s="96"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="96"/>
+      <c r="F158" s="96"/>
+      <c r="G158" s="96"/>
+      <c r="H158" s="96"/>
+      <c r="I158" s="100"/>
+      <c r="J158" s="96"/>
+      <c r="K158" s="96"/>
+      <c r="L158" s="91"/>
+      <c r="M158" s="91"/>
+      <c r="N158" s="91"/>
     </row>
     <row r="159" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="99" t="s">
+      <c r="A159" s="77" t="s">
         <v>262</v>
       </c>
-      <c r="B159" s="119" t="s">
+      <c r="B159" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="C159" s="119"/>
-      <c r="D159" s="119"/>
-      <c r="E159" s="119"/>
-      <c r="F159" s="119"/>
-      <c r="G159" s="119"/>
-      <c r="H159" s="119"/>
-      <c r="I159" s="123" t="s">
+      <c r="C159" s="96"/>
+      <c r="D159" s="96"/>
+      <c r="E159" s="96"/>
+      <c r="F159" s="96"/>
+      <c r="G159" s="96"/>
+      <c r="H159" s="96"/>
+      <c r="I159" s="100" t="s">
         <v>264</v>
       </c>
-      <c r="J159" s="120"/>
-      <c r="K159" s="120"/>
-      <c r="L159" s="114"/>
-      <c r="M159" s="114"/>
-      <c r="N159" s="114"/>
+      <c r="J159" s="97"/>
+      <c r="K159" s="97"/>
+      <c r="L159" s="91"/>
+      <c r="M159" s="91"/>
+      <c r="N159" s="91"/>
     </row>
     <row r="160" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="99" t="s">
+      <c r="A160" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="B160" s="119" t="s">
+      <c r="B160" s="96" t="s">
         <v>266</v>
       </c>
-      <c r="C160" s="119"/>
-      <c r="D160" s="119"/>
-      <c r="E160" s="119"/>
-      <c r="F160" s="119"/>
-      <c r="G160" s="119"/>
-      <c r="H160" s="119"/>
-      <c r="I160" s="123" t="s">
+      <c r="C160" s="96"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="96"/>
+      <c r="F160" s="96"/>
+      <c r="G160" s="96"/>
+      <c r="H160" s="96"/>
+      <c r="I160" s="100" t="s">
         <v>264</v>
       </c>
       <c r="J160" s="45"/>
       <c r="K160" s="45"/>
-      <c r="L160" s="114"/>
-      <c r="M160" s="114"/>
-      <c r="N160" s="114"/>
+      <c r="L160" s="91"/>
+      <c r="M160" s="91"/>
+      <c r="N160" s="91"/>
     </row>
     <row r="161" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="99" t="s">
+      <c r="A161" s="77" t="s">
         <v>267</v>
       </c>
-      <c r="B161" s="119" t="s">
+      <c r="B161" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="C161" s="119"/>
-      <c r="D161" s="119"/>
-      <c r="E161" s="119"/>
-      <c r="F161" s="119"/>
-      <c r="G161" s="119"/>
-      <c r="H161" s="119"/>
-      <c r="I161" s="123" t="s">
+      <c r="C161" s="96"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="96"/>
+      <c r="H161" s="96"/>
+      <c r="I161" s="100" t="s">
         <v>264</v>
       </c>
       <c r="J161" s="45"/>
       <c r="K161" s="45"/>
-      <c r="L161" s="114"/>
-      <c r="M161" s="114"/>
-      <c r="N161" s="114"/>
+      <c r="L161" s="91"/>
+      <c r="M161" s="91"/>
+      <c r="N161" s="91"/>
     </row>
     <row r="162" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="99"/>
-      <c r="B162" s="119"/>
-      <c r="C162" s="119"/>
-      <c r="D162" s="119"/>
-      <c r="E162" s="119"/>
-      <c r="F162" s="119"/>
-      <c r="G162" s="119"/>
-      <c r="H162" s="119"/>
-      <c r="I162" s="123"/>
+      <c r="A162" s="77" t="s">
+        <v>269</v>
+      </c>
+      <c r="B162" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="C162" s="96"/>
+      <c r="D162" s="96"/>
+      <c r="E162" s="96"/>
+      <c r="F162" s="96"/>
+      <c r="G162" s="96"/>
+      <c r="H162" s="96"/>
+      <c r="I162" s="100" t="s">
+        <v>271</v>
+      </c>
       <c r="J162" s="45"/>
       <c r="K162" s="45"/>
-      <c r="L162" s="114"/>
-      <c r="M162" s="114"/>
-      <c r="N162" s="114"/>
+      <c r="L162" s="91"/>
+      <c r="M162" s="91"/>
+      <c r="N162" s="91"/>
     </row>
     <row r="163" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="99"/>
-      <c r="B163" s="119"/>
-      <c r="C163" s="119"/>
-      <c r="D163" s="119"/>
-      <c r="E163" s="119"/>
-      <c r="F163" s="119"/>
-      <c r="G163" s="119"/>
-      <c r="H163" s="119"/>
-      <c r="I163" s="123"/>
+      <c r="A163" s="77"/>
+      <c r="B163" s="96"/>
+      <c r="C163" s="96"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="96"/>
+      <c r="F163" s="96"/>
+      <c r="G163" s="96"/>
+      <c r="H163" s="96"/>
+      <c r="I163" s="100"/>
       <c r="J163" s="45"/>
       <c r="K163" s="45"/>
-      <c r="L163" s="114"/>
-      <c r="M163" s="114"/>
-      <c r="N163" s="114"/>
+      <c r="L163" s="91"/>
+      <c r="M163" s="91"/>
+      <c r="N163" s="91"/>
     </row>
     <row r="164" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="99"/>
-      <c r="B164" s="120"/>
-      <c r="C164" s="120"/>
-      <c r="D164" s="120"/>
-      <c r="E164" s="120"/>
-      <c r="F164" s="120"/>
-      <c r="G164" s="120"/>
-      <c r="H164" s="120"/>
-      <c r="I164" s="121"/>
+      <c r="A164" s="77"/>
+      <c r="B164" s="97"/>
+      <c r="C164" s="97"/>
+      <c r="D164" s="97"/>
+      <c r="E164" s="97"/>
+      <c r="F164" s="97"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="97"/>
+      <c r="I164" s="98"/>
       <c r="J164" s="45"/>
       <c r="K164" s="45"/>
-      <c r="L164" s="122"/>
-      <c r="M164" s="105"/>
-      <c r="N164" s="105"/>
+      <c r="L164" s="99"/>
+      <c r="M164" s="83"/>
+      <c r="N164" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6002,7 +6017,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
